--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed4/result_data_KNN.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.128</v>
+        <v>5.209000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.926</v>
+        <v>-21.743</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.784000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.166</v>
+        <v>16.495</v>
       </c>
     </row>
     <row r="14">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.832</v>
+        <v>-13.174</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.356</v>
+        <v>16.514</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.006</v>
+        <v>-22.042</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.16</v>
+        <v>-20.758</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.06</v>
+        <v>16.452</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.97</v>
+        <v>16.967</v>
       </c>
     </row>
     <row r="25">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.166</v>
+        <v>5.892</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.772</v>
+        <v>-21.431</v>
       </c>
       <c r="B27" t="n">
-        <v>6.24</v>
+        <v>5.954000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602</v>
+        <v>5.970999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.416</v>
+        <v>8.670999999999999</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.354000000000001</v>
+        <v>4.479</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.27</v>
+        <v>-12.697</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.146</v>
+        <v>16.049</v>
       </c>
     </row>
     <row r="40">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-11.434</v>
+        <v>-11.989</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.646</v>
+        <v>17.268</v>
       </c>
     </row>
     <row r="49">
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.609999999999999</v>
+        <v>5.488</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.726</v>
+        <v>-11.76</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.166</v>
+        <v>16.82700000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.036</v>
+        <v>5.866999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.082</v>
+        <v>16.536</v>
       </c>
     </row>
     <row r="57">
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.688</v>
+        <v>-13.613</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.784</v>
+        <v>-11.851</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.772</v>
+        <v>-21.484</v>
       </c>
       <c r="B69" t="n">
-        <v>5.634</v>
+        <v>5.991000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.69</v>
+        <v>5.606</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.918</v>
+        <v>-11.206</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.922</v>
+        <v>-20.718</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9</v>
+        <v>-22.097</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>6.412000000000001</v>
+        <v>6.353</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.488</v>
+        <v>16.333</v>
       </c>
     </row>
     <row r="85">
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.838</v>
+        <v>-12.474</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.686</v>
+        <v>16.697</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.65</v>
+        <v>16.562</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.950000000000001</v>
+        <v>7.311999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
